--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/33.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/33.xlsx
@@ -479,13 +479,13 @@
         <v>-0.376323467923232</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.603039197699948</v>
+        <v>-1.607738431786591</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06672671973989963</v>
+        <v>0.0567993811418562</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1844521035990215</v>
+        <v>-0.1890482394332195</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.3903250759172039</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.535702659690705</v>
+        <v>-1.54541435766913</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0927310896429083</v>
+        <v>0.08225914042889482</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1860261227203222</v>
+        <v>-0.1899674666000591</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.4253160106652133</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.641896220737938</v>
+        <v>-1.651781060819706</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1047927981694355</v>
+        <v>0.09542738439769638</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1830732628487621</v>
+        <v>-0.1882092872415663</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.4773739678678559</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.688978280694284</v>
+        <v>-1.700332467625786</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1483899797912219</v>
+        <v>0.1367627005421737</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2141853248003915</v>
+        <v>-0.2190600620190598</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.5354281733507746</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.780566518314968</v>
+        <v>-1.781555002323145</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2373519665080155</v>
+        <v>0.2234895801067203</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2637858153508188</v>
+        <v>-0.2666174757500387</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.5827954857270123</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.709812784793381</v>
+        <v>-1.706113052848763</v>
       </c>
       <c r="F7" t="n">
-        <v>0.313232280307679</v>
+        <v>0.2951987432349371</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2758018773228282</v>
+        <v>-0.2762520467915202</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.6070669778861116</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.541680784313405</v>
+        <v>-1.534117622435555</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3820421002144599</v>
+        <v>0.3669677190897632</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2790238944641307</v>
+        <v>-0.2782038305019331</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.60458263437738</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.185494423335151</v>
+        <v>-1.178507352455697</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4101698219121032</v>
+        <v>0.3988715126594068</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.2759089106230767</v>
+        <v>-0.2728521654895107</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.578865613265708</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7870700462463538</v>
+        <v>-0.7802608395276069</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4485318159364436</v>
+        <v>0.4377670991658681</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.2361617797719917</v>
+        <v>-0.2334890953040231</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.535406966957004</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2592762505682923</v>
+        <v>-0.2567893003566372</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4181800052204024</v>
+        <v>0.4095701206268876</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1785574019897505</v>
+        <v>-0.1753889014985722</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.4783195674758122</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3141027128817583</v>
+        <v>0.3128639598332947</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2905616829035852</v>
+        <v>0.2836517389610752</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.1243292952226992</v>
+        <v>-0.1212568098979202</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.4094647638509789</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8979693657370355</v>
+        <v>0.8944010643890468</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09289163959328096</v>
+        <v>0.08946814800445196</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.0106992808368812</v>
+        <v>-0.008516116315637146</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.3307638790183935</v>
       </c>
       <c r="E14" t="n">
-        <v>1.608407618193465</v>
+        <v>1.592478544685902</v>
       </c>
       <c r="F14" t="n">
-        <v>0.01205788761888415</v>
+        <v>0.006857328442106672</v>
       </c>
       <c r="G14" t="n">
-        <v>0.08766904414880529</v>
+        <v>0.08889520504429851</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.244683673975427</v>
       </c>
       <c r="E15" t="n">
-        <v>2.278078775408206</v>
+        <v>2.25196894622407</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1297218847322753</v>
+        <v>-0.1379272464116158</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2045919065363843</v>
+        <v>0.2059219526938834</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-0.1544499899473237</v>
       </c>
       <c r="E16" t="n">
-        <v>2.87969406787527</v>
+        <v>2.851249968334245</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.2548327945888605</v>
+        <v>-0.2658100039408115</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3081765308900613</v>
+        <v>0.3098198068526992</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-0.06132738070620065</v>
       </c>
       <c r="E17" t="n">
-        <v>3.416154412835213</v>
+        <v>3.38836667926777</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.36404768533943</v>
+        <v>-0.3818215092571574</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3932947629126385</v>
+        <v>0.3953220995408738</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.03344690985641852</v>
       </c>
       <c r="E18" t="n">
-        <v>3.890341839299137</v>
+        <v>3.859174686678262</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.5431002304829897</v>
+        <v>-0.5617098585541278</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4891147509409392</v>
+        <v>0.4928262880289662</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.1279291203315875</v>
       </c>
       <c r="E19" t="n">
-        <v>4.265967336425454</v>
+        <v>4.234841108301733</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.7442205237071852</v>
+        <v>-0.7643223219053162</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6119984237408839</v>
+        <v>0.6140226123308766</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.222873455638928</v>
       </c>
       <c r="E20" t="n">
-        <v>4.539626300854792</v>
+        <v>4.512565764121391</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.952035907263833</v>
+        <v>-0.9722581179247436</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7187059020312214</v>
+        <v>0.7205758367473266</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.3228405045818655</v>
       </c>
       <c r="E21" t="n">
-        <v>4.748175964331526</v>
+        <v>4.721652168118489</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.071462247063841</v>
+        <v>-1.094536580372548</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8617134092969954</v>
+        <v>0.8631253044488021</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.4317824191949763</v>
       </c>
       <c r="E22" t="n">
-        <v>4.892724436317054</v>
+        <v>4.870085319295386</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.237014430204004</v>
+        <v>-1.263956915503308</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9636704978792474</v>
+        <v>0.9632848631945288</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.5501370307439081</v>
       </c>
       <c r="E23" t="n">
-        <v>4.935912372967302</v>
+        <v>4.919144347268086</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.490875382125622</v>
+        <v>-1.511775995027813</v>
       </c>
       <c r="G23" t="n">
-        <v>1.016102648828895</v>
+        <v>1.017859254168266</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.6731258064696733</v>
       </c>
       <c r="E24" t="n">
-        <v>4.983896345880154</v>
+        <v>4.970795784733568</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.700618152096303</v>
+        <v>-1.71753334858336</v>
       </c>
       <c r="G24" t="n">
-        <v>1.114593747306043</v>
+        <v>1.1131865742116</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.7930235917281399</v>
       </c>
       <c r="E25" t="n">
-        <v>4.948096854985291</v>
+        <v>4.939291792020735</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.864932369197563</v>
+        <v>-1.875699446996821</v>
       </c>
       <c r="G25" t="n">
-        <v>1.161600254344566</v>
+        <v>1.160111232255816</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.9021625366017658</v>
       </c>
       <c r="E26" t="n">
-        <v>4.936633273724857</v>
+        <v>4.927264711914876</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.926977841930555</v>
+        <v>-1.93764575652517</v>
       </c>
       <c r="G26" t="n">
-        <v>1.190932100670005</v>
+        <v>1.188679679307423</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.9945020542746631</v>
       </c>
       <c r="E27" t="n">
-        <v>4.840304877520377</v>
+        <v>4.83529792269552</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.015911496303165</v>
+        <v>-2.021660601143715</v>
       </c>
       <c r="G27" t="n">
-        <v>1.210936309682615</v>
+        <v>1.208990822048687</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.065624945568102</v>
       </c>
       <c r="E28" t="n">
-        <v>4.722196778734459</v>
+        <v>4.718420706862458</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.082679813409618</v>
+        <v>-2.085111672952028</v>
       </c>
       <c r="G28" t="n">
-        <v>1.19893756192094</v>
+        <v>1.197793250019754</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.112433335128108</v>
       </c>
       <c r="E29" t="n">
-        <v>4.598151479822994</v>
+        <v>4.597150403661847</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.17816138732684</v>
+        <v>-2.17559652316868</v>
       </c>
       <c r="G29" t="n">
-        <v>1.163498521404855</v>
+        <v>1.163616572838952</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.134849395934399</v>
       </c>
       <c r="E30" t="n">
-        <v>4.492243603246277</v>
+        <v>4.494939898001065</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.181207114326556</v>
+        <v>-2.177237438102636</v>
       </c>
       <c r="G30" t="n">
-        <v>1.116386555085204</v>
+        <v>1.117256987659283</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.134306044490782</v>
       </c>
       <c r="E31" t="n">
-        <v>4.303417973378561</v>
+        <v>4.308429650260783</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.145551646181293</v>
+        <v>-2.141356098213465</v>
       </c>
       <c r="G31" t="n">
-        <v>1.049744159508454</v>
+        <v>1.051321326667997</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.112978385660727</v>
       </c>
       <c r="E32" t="n">
-        <v>4.115621752016176</v>
+        <v>4.124469313497007</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.062852681548154</v>
+        <v>-2.060375962460788</v>
       </c>
       <c r="G32" t="n">
-        <v>1.021981610246953</v>
+        <v>1.025095020068886</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.074217773140073</v>
       </c>
       <c r="E33" t="n">
-        <v>3.898081291318572</v>
+        <v>3.909341824112357</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.006619274420566</v>
+        <v>-2.003892286292912</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9398304042680272</v>
+        <v>0.9425597534243626</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.021114819707903</v>
       </c>
       <c r="E34" t="n">
-        <v>3.68149940826584</v>
+        <v>3.697530793016288</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.906756418279205</v>
+        <v>-1.905023423226653</v>
       </c>
       <c r="G34" t="n">
-        <v>0.84815323456699</v>
+        <v>0.8529351046575014</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.956137993195571</v>
       </c>
       <c r="E35" t="n">
-        <v>3.443199209377402</v>
+        <v>3.457867493568803</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.843167619797778</v>
+        <v>-1.840851450660784</v>
       </c>
       <c r="G35" t="n">
-        <v>0.7776135676458996</v>
+        <v>0.7837616863337001</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.882119877929889</v>
       </c>
       <c r="E36" t="n">
-        <v>3.208994608242587</v>
+        <v>3.223651874300139</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.759906730338336</v>
+        <v>-1.760549717149387</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7247831898585634</v>
+        <v>0.7302450362094768</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.803338985691248</v>
       </c>
       <c r="E37" t="n">
-        <v>3.025048437650903</v>
+        <v>3.035172528639109</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.683737584029913</v>
+        <v>-1.687682862957453</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6635617161355731</v>
+        <v>0.6691856864559805</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.7234924641790241</v>
       </c>
       <c r="E38" t="n">
-        <v>2.788344294151463</v>
+        <v>2.803605983551595</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.615436172299312</v>
+        <v>-1.618726659272392</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5828664778438508</v>
+        <v>0.5896693884861124</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.6457711846768679</v>
       </c>
       <c r="E39" t="n">
-        <v>2.539526499494493</v>
+        <v>2.555592512665609</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.564142824183926</v>
+        <v>-1.568814512935947</v>
       </c>
       <c r="G39" t="n">
-        <v>0.5259735567044375</v>
+        <v>0.5307302424890081</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.5749055575501769</v>
       </c>
       <c r="E40" t="n">
-        <v>2.293546661313228</v>
+        <v>2.309453698553093</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.493127016478643</v>
+        <v>-1.500097560157323</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4990782919787726</v>
+        <v>0.5032541647075833</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.5132487723873682</v>
       </c>
       <c r="E41" t="n">
-        <v>2.090964104325344</v>
+        <v>2.108865423791897</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.469639503150594</v>
+        <v>-1.476434543697249</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4250317104554243</v>
+        <v>0.4309327081411806</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.4612273462463454</v>
       </c>
       <c r="E42" t="n">
-        <v>1.886217271045672</v>
+        <v>1.903976928791308</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.433367806519341</v>
+        <v>-1.441167858274946</v>
       </c>
       <c r="G42" t="n">
-        <v>0.409776317131778</v>
+        <v>0.4134626699138643</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.4192394822503034</v>
       </c>
       <c r="E43" t="n">
-        <v>1.742318868957242</v>
+        <v>1.757621482854527</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.399396538833869</v>
+        <v>-1.405386468599978</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3638196808471619</v>
+        <v>0.3688864483986288</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.3859337618369411</v>
       </c>
       <c r="E44" t="n">
-        <v>1.506178224303228</v>
+        <v>1.524321942714461</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.358999338085686</v>
+        <v>-1.365338700096725</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3111498530101983</v>
+        <v>0.3154075747333166</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.3586712459440317</v>
       </c>
       <c r="E45" t="n">
-        <v>1.306781482016857</v>
+        <v>1.327695474081579</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.304475315723831</v>
+        <v>-1.311029531344927</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2949988428065319</v>
+        <v>0.2971820073277759</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.3355702573465539</v>
       </c>
       <c r="E46" t="n">
-        <v>1.148035357557197</v>
+        <v>1.167537454470112</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.26070420498914</v>
+        <v>-1.264121400501484</v>
       </c>
       <c r="G46" t="n">
-        <v>0.272909058458198</v>
+        <v>0.27355283227881</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.3153476268844477</v>
       </c>
       <c r="E47" t="n">
-        <v>1.002202485968688</v>
+        <v>1.019935385389262</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.182493555880391</v>
+        <v>-1.186371151985715</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2439093301673542</v>
+        <v>0.244128118825215</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.2962509720444395</v>
       </c>
       <c r="E48" t="n">
-        <v>0.8537535946005779</v>
+        <v>0.8719524036810564</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.165548453030029</v>
+        <v>-1.164958982869102</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2045997766319908</v>
+        <v>0.2049224505518574</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.276811929504826</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7246415281376464</v>
+        <v>0.7401109880617894</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.083184754469728</v>
+        <v>-1.085322272436454</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1651753197007725</v>
+        <v>0.1645095096124623</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.2565956231159141</v>
       </c>
       <c r="E50" t="n">
-        <v>0.5923247587437466</v>
+        <v>0.6074054359449285</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.025589033792653</v>
+        <v>-1.028296346681291</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1222990388365417</v>
+        <v>0.1221825614215655</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.2349778699312361</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4735256655635772</v>
+        <v>0.4902826731289443</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.9632940790289362</v>
+        <v>-0.9680609959377953</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1025120444626708</v>
+        <v>0.1012418110317811</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.2117298850275793</v>
       </c>
       <c r="E52" t="n">
-        <v>0.3562108724147943</v>
+        <v>0.3704494493860804</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.9366388522192697</v>
+        <v>-0.9414301664245089</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06005130464646342</v>
+        <v>0.05961215331162052</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.1876041497451758</v>
       </c>
       <c r="E53" t="n">
-        <v>0.1950722388907577</v>
+        <v>0.2121267360700507</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9179827905840533</v>
+        <v>-0.9220783883376776</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02266835051557208</v>
+        <v>0.02232206630888593</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.1635093943108296</v>
       </c>
       <c r="E54" t="n">
-        <v>0.09335754925318597</v>
+        <v>0.1077566761748447</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.8707055522566658</v>
+        <v>-0.8753465476358209</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.0136694549187756</v>
+        <v>-0.01453831347373358</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.1398943576440173</v>
       </c>
       <c r="E55" t="n">
-        <v>9.062023963501514e-05</v>
+        <v>0.01091042767945594</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.8428131464176569</v>
+        <v>-0.849594807801781</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.04161144236010541</v>
+        <v>-0.04284547335120514</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.1178809076308327</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.09777874068459914</v>
+        <v>-0.08573749440664889</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.8408912690705488</v>
+        <v>-0.8476414500722468</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.0473156876556991</v>
+        <v>-0.04910534739661798</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.09811888537671923</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.2332577144931919</v>
+        <v>-0.2172593841442918</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.8283801780848903</v>
+        <v>-0.836353371943839</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.0884951759071677</v>
+        <v>-0.09135044659320714</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.08089600751528904</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.320798361943451</v>
+        <v>-0.3055225063712279</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.7762030182328938</v>
+        <v>-0.7876823396845397</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1206397944023703</v>
+        <v>-0.1230716539447799</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.065970313760362</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.4434223215883811</v>
+        <v>-0.4238194874517023</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.8309513383195349</v>
+        <v>-0.8397469571693632</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1477082012313783</v>
+        <v>-0.150114876467847</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.0529691044588759</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.503213011930109</v>
+        <v>-0.4853683571519231</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.8016549074243259</v>
+        <v>-0.813061823996392</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1654883212255908</v>
+        <v>-0.1691573597973427</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.04095424135465493</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.6029129570924159</v>
+        <v>-0.5852682027426351</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.8211428381651498</v>
+        <v>-0.8324387863891641</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1984860580845385</v>
+        <v>-0.2017033531684771</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.02896313265351864</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.6908833117627901</v>
+        <v>-0.6749243318919224</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.8620295588600564</v>
+        <v>-0.8743824609240242</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2223670761929125</v>
+        <v>-0.2277659617789738</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.01647216294343756</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.7749359328402468</v>
+        <v>-0.7577917165710396</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.8631014658816621</v>
+        <v>-0.8760973547566813</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2356155951369004</v>
+        <v>-0.2419242637750735</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.003018567680333142</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.8249881668784873</v>
+        <v>-0.8075732193204165</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.8712635420351669</v>
+        <v>-0.8844278509561652</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2632223165053931</v>
+        <v>-0.2684181536248067</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.01136564241666202</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.9016791005256207</v>
+        <v>-0.8863646814849256</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.8730760250533446</v>
+        <v>-0.8876955146519854</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2743773900180511</v>
+        <v>-0.2805097685146386</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.02667704712318474</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9289599999360042</v>
+        <v>-0.9154076953016054</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.8843703992582377</v>
+        <v>-0.898322504749447</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2891747437773989</v>
+        <v>-0.295048983138093</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.0428222360419093</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.9983364667264534</v>
+        <v>-0.9859331960506039</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.8588429571489832</v>
+        <v>-0.874983736228361</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2819610141444778</v>
+        <v>-0.2897996293685552</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.05984047944121591</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.018267483849923</v>
+        <v>-1.007365040406234</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.9142665314386623</v>
+        <v>-0.9295888205749638</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3030701845802414</v>
+        <v>-0.3114172079804989</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.07744863338071359</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.03088482112627</v>
+        <v>-1.019543226347738</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.8949816491644863</v>
+        <v>-0.9109736834369013</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3205874433811967</v>
+        <v>-0.3283930042037268</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.09528725478128244</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.033641715617228</v>
+        <v>-1.025184510878479</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.9289765271367779</v>
+        <v>-0.944799354353653</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.3199798720003746</v>
+        <v>-0.3285126296569457</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.1128318956636813</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.9989983417669603</v>
+        <v>-0.9926794420044986</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.9734213180553848</v>
+        <v>-0.9884791719793078</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.3158842742467503</v>
+        <v>-0.3257093016019091</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.1291794069279535</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.9340519517934119</v>
+        <v>-0.9318727223199712</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.031637989275812</v>
+        <v>-1.045797865291033</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.2884207886182958</v>
+        <v>-0.2997316900239626</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.1436089196468398</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.8639585192932104</v>
+        <v>-0.8628086983251002</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.069521481487277</v>
+        <v>-1.08215849400264</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.2932719155501446</v>
+        <v>-0.3028167675017119</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.1555924364101949</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.8042441688788655</v>
+        <v>-0.8053223719769566</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.116017219320939</v>
+        <v>-1.126513565831332</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.2903363698889188</v>
+        <v>-0.299440496486522</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.1642663385200303</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.6801925738909157</v>
+        <v>-0.683135989647748</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.158084454356821</v>
+        <v>-1.165987604364872</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.257876947569456</v>
+        <v>-0.268901377495046</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.1690550397720814</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.5354095730563145</v>
+        <v>-0.5414034378702276</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.222258787951371</v>
+        <v>-1.227124081055312</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.2277612397216099</v>
+        <v>-0.2393428724161404</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.1694466220422149</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.4139850159818156</v>
+        <v>-0.4224343506249577</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.221629180302851</v>
+        <v>-1.226078145349207</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.1901988474108903</v>
+        <v>-0.2016718727860511</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.1652999647342327</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.2790852812098615</v>
+        <v>-0.2875692442736722</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.254906305555829</v>
+        <v>-1.259044401825729</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.169399758742023</v>
+        <v>-0.1799850373327702</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.1573846870112643</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.130730830989029</v>
+        <v>-0.1412090762795277</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.278628347732952</v>
+        <v>-1.27871098373682</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.1325645632653444</v>
+        <v>-0.1440832351950228</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.1461076413161144</v>
       </c>
       <c r="E80" t="n">
-        <v>0.01004314314361926</v>
+        <v>0.0005974543966938366</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.265367236635994</v>
+        <v>-1.265093357308887</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.1062186312130134</v>
+        <v>-0.1168133539184884</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.1321689507842795</v>
       </c>
       <c r="E81" t="n">
-        <v>0.1615047071098993</v>
+        <v>0.1549898419668357</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.305924200324988</v>
+        <v>-1.303486044706093</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.08723123855276324</v>
+        <v>-0.0978952180995754</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.1161514266703037</v>
       </c>
       <c r="E82" t="n">
-        <v>0.2719331666029916</v>
+        <v>0.2670914837858707</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.308849514861925</v>
+        <v>-1.308689751921113</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.01451312916779277</v>
+        <v>-0.0271698169221716</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.0991625782677785</v>
       </c>
       <c r="E83" t="n">
-        <v>0.4324941351095108</v>
+        <v>0.4291666586870812</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.288729615443899</v>
+        <v>-1.285811383993008</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.002084674186002535</v>
+        <v>-0.0138945396531216</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.08209065023704433</v>
       </c>
       <c r="E84" t="n">
-        <v>0.5640191728853964</v>
+        <v>0.5633423446632371</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.290229655666499</v>
+        <v>-1.285550096818872</v>
       </c>
       <c r="G84" t="n">
-        <v>0.08018773126526312</v>
+        <v>0.06499529870646888</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.06592926636258084</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7026099824968006</v>
+        <v>0.7012122535170856</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.238079254139564</v>
+        <v>-1.233395760244134</v>
       </c>
       <c r="G85" t="n">
-        <v>0.120133188525632</v>
+        <v>0.1044638281730836</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.05187447188019563</v>
       </c>
       <c r="E86" t="n">
-        <v>0.8892744841109704</v>
+        <v>0.8867167030388569</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.198999507395911</v>
+        <v>-1.192836435526458</v>
       </c>
       <c r="G86" t="n">
-        <v>0.1641175788512584</v>
+        <v>0.1486229346211744</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.04066364046850993</v>
       </c>
       <c r="E87" t="n">
-        <v>1.012347039205471</v>
+        <v>1.008918825559278</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.06397070305601</v>
+        <v>-1.060281202235681</v>
       </c>
       <c r="G87" t="n">
-        <v>0.1938161716319598</v>
+        <v>0.1798813803510848</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.03309045597285653</v>
       </c>
       <c r="E88" t="n">
-        <v>1.147750460096242</v>
+        <v>1.143664306457345</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.9492144779889015</v>
+        <v>-0.9459310741018683</v>
       </c>
       <c r="G88" t="n">
-        <v>0.2246874086580302</v>
+        <v>0.2118748930106426</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.0294256794702732</v>
       </c>
       <c r="E89" t="n">
-        <v>1.25170025688606</v>
+        <v>1.248918965098722</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.8644543353164201</v>
+        <v>-0.8603894309356611</v>
       </c>
       <c r="G89" t="n">
-        <v>0.2367443951271934</v>
+        <v>0.2239350275180484</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.02982567100792525</v>
       </c>
       <c r="E90" t="n">
-        <v>1.329266345164637</v>
+        <v>1.326415796535961</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.7493738623103235</v>
+        <v>-0.7428841814732008</v>
       </c>
       <c r="G90" t="n">
-        <v>0.2016626569516437</v>
+        <v>0.1938807064159331</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.03319368196177187</v>
       </c>
       <c r="E91" t="n">
-        <v>1.319409837427052</v>
+        <v>1.319107625755762</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.6095080972106658</v>
+        <v>-0.6009171008466067</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1969642098745611</v>
+        <v>0.1891051324019068</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.03887783216611039</v>
       </c>
       <c r="E92" t="n">
-        <v>1.305136632035097</v>
+        <v>1.306723243309369</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4784489690946853</v>
+        <v>-0.4686318118351329</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1712951060443895</v>
+        <v>0.1649769932914886</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.04606146648364983</v>
       </c>
       <c r="E93" t="n">
-        <v>1.273377648224613</v>
+        <v>1.277350472486776</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.343527198055033</v>
+        <v>-0.332320181911372</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1639837872259478</v>
+        <v>0.1585644393913096</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.05421759422569999</v>
       </c>
       <c r="E94" t="n">
-        <v>1.191930028792909</v>
+        <v>1.197834174516908</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.1936333571335684</v>
+        <v>-0.1836950004016759</v>
       </c>
       <c r="G94" t="n">
-        <v>0.146008488860694</v>
+        <v>0.1394951977367517</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.06332565989653029</v>
       </c>
       <c r="E95" t="n">
-        <v>1.158864609111746</v>
+        <v>1.16598547161651</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.1012179724646411</v>
+        <v>-0.08986142450445669</v>
       </c>
       <c r="G95" t="n">
-        <v>0.1276097793518102</v>
+        <v>0.1213357391343057</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.07360260329872595</v>
       </c>
       <c r="E96" t="n">
-        <v>1.119577091844081</v>
+        <v>1.123789167012681</v>
       </c>
       <c r="F96" t="n">
-        <v>0.005772829267530498</v>
+        <v>0.01581507126142889</v>
       </c>
       <c r="G96" t="n">
-        <v>0.05834349389985217</v>
+        <v>0.05487592977562675</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.0851085046979905</v>
       </c>
       <c r="E97" t="n">
-        <v>1.023423411762064</v>
+        <v>1.030808709479207</v>
       </c>
       <c r="F97" t="n">
-        <v>0.06319776886994349</v>
+        <v>0.07054529012817511</v>
       </c>
       <c r="G97" t="n">
-        <v>0.03294354733942297</v>
+        <v>0.03103111410704263</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.09918348577252553</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9993015687281311</v>
+        <v>1.00541191095702</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09861162508008767</v>
+        <v>0.1032046128760431</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.007250604942111393</v>
+        <v>-0.007598463167918844</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1157530694260101</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9759352548724224</v>
+        <v>0.9792768974669438</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1648180173602372</v>
+        <v>0.1661858399766475</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.02551080076832067</v>
+        <v>-0.02477258580043065</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1380487461656061</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8858021979293811</v>
+        <v>0.8885803416784769</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1537636810713425</v>
+        <v>0.1547946635957944</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.03666272624273605</v>
+        <v>-0.03498167382118691</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.163891040536861</v>
       </c>
       <c r="E101" t="n">
-        <v>0.8042868956754611</v>
+        <v>0.8071295742085302</v>
       </c>
       <c r="F101" t="n">
-        <v>0.142245009141664</v>
+        <v>0.1423252841168504</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.06556171730981668</v>
+        <v>-0.06354854685367309</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1984121187135486</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6827222508991664</v>
+        <v>0.6850061526441737</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1375308218733685</v>
+        <v>0.1371105587679812</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.08313721481826016</v>
+        <v>-0.08180716866076107</v>
       </c>
     </row>
   </sheetData>
